--- a/Unity/Assets/Config/Excel/StartConfig/Release_148/StartMachineConfig.xlsx
+++ b/Unity/Assets/Config/Excel/StartConfig/Release_148/StartMachineConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\ARTowerDefense\Unity\Assets\Config\Excel\StartConfig\Release_148\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CBF63B2-B454-468F-9F02-6C0D13BFF615}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B15227C9-BBEF-42EB-ADF5-F6C41C800606}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23256" windowHeight="11964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -466,7 +466,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="155" zoomScaleNormal="155" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -543,7 +543,7 @@
         <v>13</v>
       </c>
       <c r="E4">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="G4" s="3"/>
     </row>
